--- a/Results/Emissions/RR/Annual_Emission_hist.xlsx
+++ b/Results/Emissions/RR/Annual_Emission_hist.xlsx
@@ -10,13 +10,15 @@
     <sheet name="Total" sheetId="1" r:id="rId1"/>
     <sheet name="Effective" sheetId="2" r:id="rId2"/>
     <sheet name="Avoided" sheetId="3" r:id="rId3"/>
+    <sheet name="Primary" sheetId="4" r:id="rId4"/>
+    <sheet name="Secondary" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
   <si>
     <t>Neodymium</t>
   </si>
@@ -4536,4 +4538,2774 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CM5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:91">
+      <c r="B1" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2014</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2031</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2032</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2033</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2034</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>2035</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2036</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>2037</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>2038</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>2039</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>2040</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>2041</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>2042</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>2043</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>2044</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>2045</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>2046</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>2047</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>2049</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>2050</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>2051</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>2052</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>2053</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>2054</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>2055</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>2056</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>2057</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>2058</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>2059</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>2060</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>2061</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>2062</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>2063</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>2064</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>2065</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>2066</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>2067</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>2068</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>2069</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>2070</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>2071</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>2072</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>2073</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>2074</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>2075</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>2076</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>2077</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>2078</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>2079</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>2080</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>2081</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>2082</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>2083</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>2084</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>2085</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>2086</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>2087</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>2088</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>2089</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>2090</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>2091</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>2092</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>2093</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>2094</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>2095</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>2096</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>2097</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>2098</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>2099</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:91">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>46.87313184253996</v>
+      </c>
+      <c r="C2">
+        <v>66.33198678148759</v>
+      </c>
+      <c r="D2">
+        <v>64.1089384584233</v>
+      </c>
+      <c r="E2">
+        <v>60.87287774328054</v>
+      </c>
+      <c r="F2">
+        <v>97.98477953302294</v>
+      </c>
+      <c r="G2">
+        <v>70.69516494205936</v>
+      </c>
+      <c r="H2">
+        <v>125.7741889276355</v>
+      </c>
+      <c r="I2">
+        <v>119.5422788752873</v>
+      </c>
+      <c r="J2">
+        <v>112.1300093206742</v>
+      </c>
+      <c r="K2">
+        <v>101.2032910050308</v>
+      </c>
+      <c r="L2">
+        <v>209.8174006905885</v>
+      </c>
+      <c r="M2">
+        <v>142.8001959795544</v>
+      </c>
+      <c r="N2">
+        <v>279.4014087450087</v>
+      </c>
+      <c r="O2">
+        <v>301.5816040079839</v>
+      </c>
+      <c r="P2">
+        <v>324.070696442842</v>
+      </c>
+      <c r="Q2">
+        <v>709.4688953795908</v>
+      </c>
+      <c r="R2">
+        <v>759.6789121482301</v>
+      </c>
+      <c r="S2">
+        <v>810.4343291835587</v>
+      </c>
+      <c r="T2">
+        <v>862.1467028353665</v>
+      </c>
+      <c r="U2">
+        <v>914.6206621622375</v>
+      </c>
+      <c r="V2">
+        <v>919.0646679306192</v>
+      </c>
+      <c r="W2">
+        <v>969.5444029861345</v>
+      </c>
+      <c r="X2">
+        <v>1020.441974329527</v>
+      </c>
+      <c r="Y2">
+        <v>1072.405751754022</v>
+      </c>
+      <c r="Z2">
+        <v>1125.841590377793</v>
+      </c>
+      <c r="AA2">
+        <v>525.8533340885029</v>
+      </c>
+      <c r="AB2">
+        <v>540.4891928853407</v>
+      </c>
+      <c r="AC2">
+        <v>559.2768986625797</v>
+      </c>
+      <c r="AD2">
+        <v>577.4639816738758</v>
+      </c>
+      <c r="AE2">
+        <v>598.7376319724295</v>
+      </c>
+      <c r="AF2">
+        <v>383.5443248650511</v>
+      </c>
+      <c r="AG2">
+        <v>387.1265864785941</v>
+      </c>
+      <c r="AH2">
+        <v>405.9241998601833</v>
+      </c>
+      <c r="AI2">
+        <v>439.570696923221</v>
+      </c>
+      <c r="AJ2">
+        <v>472.3325762446801</v>
+      </c>
+      <c r="AK2">
+        <v>626.1545632722265</v>
+      </c>
+      <c r="AL2">
+        <v>705.5040219975901</v>
+      </c>
+      <c r="AM2">
+        <v>815.5125659908483</v>
+      </c>
+      <c r="AN2">
+        <v>957.4809096026887</v>
+      </c>
+      <c r="AO2">
+        <v>1059.217737378677</v>
+      </c>
+      <c r="AP2">
+        <v>1304.129067627709</v>
+      </c>
+      <c r="AQ2">
+        <v>1360.362864316425</v>
+      </c>
+      <c r="AR2">
+        <v>1407.583291476013</v>
+      </c>
+      <c r="AS2">
+        <v>1446.180252384956</v>
+      </c>
+      <c r="AT2">
+        <v>1485.35674246558</v>
+      </c>
+      <c r="AU2">
+        <v>1555.859639703585</v>
+      </c>
+      <c r="AV2">
+        <v>1540.191049402801</v>
+      </c>
+      <c r="AW2">
+        <v>1440.122612289027</v>
+      </c>
+      <c r="AX2">
+        <v>1277.617524600513</v>
+      </c>
+      <c r="AY2">
+        <v>1196.976713315072</v>
+      </c>
+      <c r="AZ2">
+        <v>1146.847407271552</v>
+      </c>
+      <c r="BA2">
+        <v>1139.113901065479</v>
+      </c>
+      <c r="BB2">
+        <v>1102.69827835387</v>
+      </c>
+      <c r="BC2">
+        <v>1047.026784938133</v>
+      </c>
+      <c r="BD2">
+        <v>1028.777956623011</v>
+      </c>
+      <c r="BE2">
+        <v>1018.728824435783</v>
+      </c>
+      <c r="BF2">
+        <v>1067.089305987385</v>
+      </c>
+      <c r="BG2">
+        <v>1141.376747952351</v>
+      </c>
+      <c r="BH2">
+        <v>1243.369145285024</v>
+      </c>
+      <c r="BI2">
+        <v>1354.870861878155</v>
+      </c>
+      <c r="BJ2">
+        <v>1453.737647722684</v>
+      </c>
+      <c r="BK2">
+        <v>1586.105936717287</v>
+      </c>
+      <c r="BL2">
+        <v>1722.463066445235</v>
+      </c>
+      <c r="BM2">
+        <v>1850.603051118095</v>
+      </c>
+      <c r="BN2">
+        <v>1937.790857339335</v>
+      </c>
+      <c r="BO2">
+        <v>1980.061878475833</v>
+      </c>
+      <c r="BP2">
+        <v>2024.543759755438</v>
+      </c>
+      <c r="BQ2">
+        <v>2060.700893424252</v>
+      </c>
+      <c r="BR2">
+        <v>2073.630194420053</v>
+      </c>
+      <c r="BS2">
+        <v>2037.875773743838</v>
+      </c>
+      <c r="BT2">
+        <v>1941.191296904944</v>
+      </c>
+      <c r="BU2">
+        <v>1845.637581669286</v>
+      </c>
+      <c r="BV2">
+        <v>1778.280264391966</v>
+      </c>
+      <c r="BW2">
+        <v>1742.639416828243</v>
+      </c>
+      <c r="BX2">
+        <v>1719.658632881248</v>
+      </c>
+      <c r="BY2">
+        <v>1682.627085071506</v>
+      </c>
+      <c r="BZ2">
+        <v>1659.019970518058</v>
+      </c>
+      <c r="CA2">
+        <v>1654.965088596506</v>
+      </c>
+      <c r="CB2">
+        <v>1679.390558212528</v>
+      </c>
+      <c r="CC2">
+        <v>1735.860871168024</v>
+      </c>
+      <c r="CD2">
+        <v>1804.794557975005</v>
+      </c>
+      <c r="CE2">
+        <v>1905.548946737276</v>
+      </c>
+      <c r="CF2">
+        <v>2015.450506599175</v>
+      </c>
+      <c r="CG2">
+        <v>2131.024369037738</v>
+      </c>
+      <c r="CH2">
+        <v>2253.717453390591</v>
+      </c>
+      <c r="CI2">
+        <v>2351.729944457359</v>
+      </c>
+      <c r="CJ2">
+        <v>2454.475342297218</v>
+      </c>
+      <c r="CK2">
+        <v>2529.350807812322</v>
+      </c>
+      <c r="CL2">
+        <v>2578.911470868825</v>
+      </c>
+      <c r="CM2">
+        <v>2612.941282864932</v>
+      </c>
+    </row>
+    <row r="3" spans="1:91">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>16.48416770966605</v>
+      </c>
+      <c r="C3">
+        <v>23.38798957595705</v>
+      </c>
+      <c r="D3">
+        <v>22.57939166938897</v>
+      </c>
+      <c r="E3">
+        <v>21.42598026129285</v>
+      </c>
+      <c r="F3">
+        <v>34.62336947153077</v>
+      </c>
+      <c r="G3">
+        <v>24.89427440242367</v>
+      </c>
+      <c r="H3">
+        <v>44.5019270532784</v>
+      </c>
+      <c r="I3">
+        <v>42.25943849060294</v>
+      </c>
+      <c r="J3">
+        <v>39.61019045635977</v>
+      </c>
+      <c r="K3">
+        <v>35.70447677404155</v>
+      </c>
+      <c r="L3">
+        <v>74.40418075014863</v>
+      </c>
+      <c r="M3">
+        <v>50.51125071923273</v>
+      </c>
+      <c r="N3">
+        <v>99.17247898286358</v>
+      </c>
+      <c r="O3">
+        <v>107.0704964006679</v>
+      </c>
+      <c r="P3">
+        <v>115.0795442916049</v>
+      </c>
+      <c r="Q3">
+        <v>252.3823376030388</v>
+      </c>
+      <c r="R3">
+        <v>270.2640088491941</v>
+      </c>
+      <c r="S3">
+        <v>288.3415605153586</v>
+      </c>
+      <c r="T3">
+        <v>306.7628912350982</v>
+      </c>
+      <c r="U3">
+        <v>325.4577885163404</v>
+      </c>
+      <c r="V3">
+        <v>327.0394220480268</v>
+      </c>
+      <c r="W3">
+        <v>345.0319764200918</v>
+      </c>
+      <c r="X3">
+        <v>363.1745214328936</v>
+      </c>
+      <c r="Y3">
+        <v>381.6999113359518</v>
+      </c>
+      <c r="Z3">
+        <v>400.7538954244511</v>
+      </c>
+      <c r="AA3">
+        <v>186.9747001306194</v>
+      </c>
+      <c r="AB3">
+        <v>192.1987596063275</v>
+      </c>
+      <c r="AC3">
+        <v>198.9138577718699</v>
+      </c>
+      <c r="AD3">
+        <v>205.4120914697024</v>
+      </c>
+      <c r="AE3">
+        <v>213.0179547114977</v>
+      </c>
+      <c r="AF3">
+        <v>136.3482886139926</v>
+      </c>
+      <c r="AG3">
+        <v>137.6286632883273</v>
+      </c>
+      <c r="AH3">
+        <v>144.3744693425589</v>
+      </c>
+      <c r="AI3">
+        <v>156.452430529292</v>
+      </c>
+      <c r="AJ3">
+        <v>168.2094946914108</v>
+      </c>
+      <c r="AK3">
+        <v>223.1595338705694</v>
+      </c>
+      <c r="AL3">
+        <v>251.6397161923898</v>
+      </c>
+      <c r="AM3">
+        <v>291.1353911323712</v>
+      </c>
+      <c r="AN3">
+        <v>342.1149000060958</v>
+      </c>
+      <c r="AO3">
+        <v>378.6391817870993</v>
+      </c>
+      <c r="AP3">
+        <v>466.0502295904986</v>
+      </c>
+      <c r="AQ3">
+        <v>486.2067019764759</v>
+      </c>
+      <c r="AR3">
+        <v>503.1286666246647</v>
+      </c>
+      <c r="AS3">
+        <v>516.9570872510461</v>
+      </c>
+      <c r="AT3">
+        <v>530.9993876566717</v>
+      </c>
+      <c r="AU3">
+        <v>556.1759904484343</v>
+      </c>
+      <c r="AV3">
+        <v>550.5156815980311</v>
+      </c>
+      <c r="AW3">
+        <v>514.5316592477665</v>
+      </c>
+      <c r="AX3">
+        <v>456.1149257866277</v>
+      </c>
+      <c r="AY3">
+        <v>427.1170603138298</v>
+      </c>
+      <c r="AZ3">
+        <v>409.236587500544</v>
+      </c>
+      <c r="BA3">
+        <v>406.4402567603889</v>
+      </c>
+      <c r="BB3">
+        <v>393.3347974047559</v>
+      </c>
+      <c r="BC3">
+        <v>373.3061558178466</v>
+      </c>
+      <c r="BD3">
+        <v>366.7210405293679</v>
+      </c>
+      <c r="BE3">
+        <v>363.1881855212661</v>
+      </c>
+      <c r="BF3">
+        <v>380.5313144663315</v>
+      </c>
+      <c r="BG3">
+        <v>407.1859053831603</v>
+      </c>
+      <c r="BH3">
+        <v>443.7914760710116</v>
+      </c>
+      <c r="BI3">
+        <v>483.8104916554748</v>
+      </c>
+      <c r="BJ3">
+        <v>519.3476608529227</v>
+      </c>
+      <c r="BK3">
+        <v>566.8617649042968</v>
+      </c>
+      <c r="BL3">
+        <v>615.8091028231829</v>
+      </c>
+      <c r="BM3">
+        <v>661.8044785928965</v>
+      </c>
+      <c r="BN3">
+        <v>693.0853139285998</v>
+      </c>
+      <c r="BO3">
+        <v>708.2579689171469</v>
+      </c>
+      <c r="BP3">
+        <v>724.1967328343931</v>
+      </c>
+      <c r="BQ3">
+        <v>737.1470917381348</v>
+      </c>
+      <c r="BR3">
+        <v>741.754011754071</v>
+      </c>
+      <c r="BS3">
+        <v>728.8701487967903</v>
+      </c>
+      <c r="BT3">
+        <v>694.1320467451179</v>
+      </c>
+      <c r="BU3">
+        <v>659.7652463370727</v>
+      </c>
+      <c r="BV3">
+        <v>635.5324118436379</v>
+      </c>
+      <c r="BW3">
+        <v>622.6978478747618</v>
+      </c>
+      <c r="BX3">
+        <v>614.4135589842431</v>
+      </c>
+      <c r="BY3">
+        <v>601.1144033133273</v>
+      </c>
+      <c r="BZ3">
+        <v>592.6041867328839</v>
+      </c>
+      <c r="CA3">
+        <v>591.118916873288</v>
+      </c>
+      <c r="CB3">
+        <v>599.8663556429015</v>
+      </c>
+      <c r="CC3">
+        <v>620.1269609567703</v>
+      </c>
+      <c r="CD3">
+        <v>644.9064554008006</v>
+      </c>
+      <c r="CE3">
+        <v>681.0741775682609</v>
+      </c>
+      <c r="CF3">
+        <v>720.5265398285378</v>
+      </c>
+      <c r="CG3">
+        <v>762.0153002231668</v>
+      </c>
+      <c r="CH3">
+        <v>806.0609719400421</v>
+      </c>
+      <c r="CI3">
+        <v>841.3043234059136</v>
+      </c>
+      <c r="CJ3">
+        <v>878.180614750027</v>
+      </c>
+      <c r="CK3">
+        <v>905.0419716611767</v>
+      </c>
+      <c r="CL3">
+        <v>922.806921466822</v>
+      </c>
+      <c r="CM3">
+        <v>934.9916874857496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:91">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3257.618659289207</v>
+      </c>
+      <c r="C4">
+        <v>2998.273547924573</v>
+      </c>
+      <c r="D4">
+        <v>2460.38965372356</v>
+      </c>
+      <c r="E4">
+        <v>2804.065917759883</v>
+      </c>
+      <c r="F4">
+        <v>3540.469286588793</v>
+      </c>
+      <c r="G4">
+        <v>3301.653394881089</v>
+      </c>
+      <c r="H4">
+        <v>3548.990593236414</v>
+      </c>
+      <c r="I4">
+        <v>3114.220684573574</v>
+      </c>
+      <c r="J4">
+        <v>3381.414927924362</v>
+      </c>
+      <c r="K4">
+        <v>3994.350455841194</v>
+      </c>
+      <c r="L4">
+        <v>3784.678140232801</v>
+      </c>
+      <c r="M4">
+        <v>4365.061842953687</v>
+      </c>
+      <c r="N4">
+        <v>23064.38085376552</v>
+      </c>
+      <c r="O4">
+        <v>23191.87420433969</v>
+      </c>
+      <c r="P4">
+        <v>23290.1070723067</v>
+      </c>
+      <c r="Q4">
+        <v>73541.9571258324</v>
+      </c>
+      <c r="R4">
+        <v>73693.11343760519</v>
+      </c>
+      <c r="S4">
+        <v>73868.56760626199</v>
+      </c>
+      <c r="T4">
+        <v>74063.41780110706</v>
+      </c>
+      <c r="U4">
+        <v>74273.21134099324</v>
+      </c>
+      <c r="V4">
+        <v>77581.8754356089</v>
+      </c>
+      <c r="W4">
+        <v>77832.03330749467</v>
+      </c>
+      <c r="X4">
+        <v>78078.53423457015</v>
+      </c>
+      <c r="Y4">
+        <v>78350.69802357805</v>
+      </c>
+      <c r="Z4">
+        <v>78659.45002927353</v>
+      </c>
+      <c r="AA4">
+        <v>22852.62388106029</v>
+      </c>
+      <c r="AB4">
+        <v>23236.34197109003</v>
+      </c>
+      <c r="AC4">
+        <v>23694.89440313975</v>
+      </c>
+      <c r="AD4">
+        <v>24156.77912804789</v>
+      </c>
+      <c r="AE4">
+        <v>24742.10809275358</v>
+      </c>
+      <c r="AF4">
+        <v>7516.575849686444</v>
+      </c>
+      <c r="AG4">
+        <v>8206.772295238829</v>
+      </c>
+      <c r="AH4">
+        <v>9241.971365165193</v>
+      </c>
+      <c r="AI4">
+        <v>10687.2098509838</v>
+      </c>
+      <c r="AJ4">
+        <v>12510.38564622502</v>
+      </c>
+      <c r="AK4">
+        <v>23810.98387511284</v>
+      </c>
+      <c r="AL4">
+        <v>26775.36425423444</v>
+      </c>
+      <c r="AM4">
+        <v>30237.60961670063</v>
+      </c>
+      <c r="AN4">
+        <v>34142.14100192462</v>
+      </c>
+      <c r="AO4">
+        <v>37175.63274759056</v>
+      </c>
+      <c r="AP4">
+        <v>51168.71642204008</v>
+      </c>
+      <c r="AQ4">
+        <v>52865.21757312147</v>
+      </c>
+      <c r="AR4">
+        <v>54097.38715945047</v>
+      </c>
+      <c r="AS4">
+        <v>54801.37023657258</v>
+      </c>
+      <c r="AT4">
+        <v>55048.30225841637</v>
+      </c>
+      <c r="AU4">
+        <v>58185.50600778387</v>
+      </c>
+      <c r="AV4">
+        <v>56919.85513564102</v>
+      </c>
+      <c r="AW4">
+        <v>54420.10926227558</v>
+      </c>
+      <c r="AX4">
+        <v>51068.74721718907</v>
+      </c>
+      <c r="AY4">
+        <v>48528.20380867721</v>
+      </c>
+      <c r="AZ4">
+        <v>44635.80500581292</v>
+      </c>
+      <c r="BA4">
+        <v>42973.51299912274</v>
+      </c>
+      <c r="BB4">
+        <v>41356.53408234354</v>
+      </c>
+      <c r="BC4">
+        <v>40077.74130069534</v>
+      </c>
+      <c r="BD4">
+        <v>39334.52920541549</v>
+      </c>
+      <c r="BE4">
+        <v>38021.39979360342</v>
+      </c>
+      <c r="BF4">
+        <v>38518.25147481181</v>
+      </c>
+      <c r="BG4">
+        <v>39940.0930903783</v>
+      </c>
+      <c r="BH4">
+        <v>42145.98866163399</v>
+      </c>
+      <c r="BI4">
+        <v>44772.5475181415</v>
+      </c>
+      <c r="BJ4">
+        <v>47476.44984249235</v>
+      </c>
+      <c r="BK4">
+        <v>50515.34800733232</v>
+      </c>
+      <c r="BL4">
+        <v>53381.835715922</v>
+      </c>
+      <c r="BM4">
+        <v>55894.08949269014</v>
+      </c>
+      <c r="BN4">
+        <v>57842.22884250984</v>
+      </c>
+      <c r="BO4">
+        <v>59317.88614130078</v>
+      </c>
+      <c r="BP4">
+        <v>60480.374882292</v>
+      </c>
+      <c r="BQ4">
+        <v>61298.07809312866</v>
+      </c>
+      <c r="BR4">
+        <v>61602.67064396293</v>
+      </c>
+      <c r="BS4">
+        <v>61162.92960909237</v>
+      </c>
+      <c r="BT4">
+        <v>59723.41633039806</v>
+      </c>
+      <c r="BU4">
+        <v>58329.64842214494</v>
+      </c>
+      <c r="BV4">
+        <v>57281.87339800021</v>
+      </c>
+      <c r="BW4">
+        <v>56652.56018627321</v>
+      </c>
+      <c r="BX4">
+        <v>55981.68269924914</v>
+      </c>
+      <c r="BY4">
+        <v>54733.55718190658</v>
+      </c>
+      <c r="BZ4">
+        <v>54075.97406487508</v>
+      </c>
+      <c r="CA4">
+        <v>53613.21003882423</v>
+      </c>
+      <c r="CB4">
+        <v>53440.60577275945</v>
+      </c>
+      <c r="CC4">
+        <v>53601.19571406582</v>
+      </c>
+      <c r="CD4">
+        <v>53485.55234734986</v>
+      </c>
+      <c r="CE4">
+        <v>54946.57293264729</v>
+      </c>
+      <c r="CF4">
+        <v>56696.54783334018</v>
+      </c>
+      <c r="CG4">
+        <v>58597.3042161686</v>
+      </c>
+      <c r="CH4">
+        <v>60538.44320939716</v>
+      </c>
+      <c r="CI4">
+        <v>60815.14945568471</v>
+      </c>
+      <c r="CJ4">
+        <v>62375.30272555858</v>
+      </c>
+      <c r="CK4">
+        <v>63623.98003140631</v>
+      </c>
+      <c r="CL4">
+        <v>64600.54662482431</v>
+      </c>
+      <c r="CM4">
+        <v>65360.34094946548</v>
+      </c>
+    </row>
+    <row r="5" spans="1:91">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3598.012364742959</v>
+      </c>
+      <c r="C5">
+        <v>2632.622648419901</v>
+      </c>
+      <c r="D5">
+        <v>2455.215797210311</v>
+      </c>
+      <c r="E5">
+        <v>2355.518691152375</v>
+      </c>
+      <c r="F5">
+        <v>2721.229317653299</v>
+      </c>
+      <c r="G5">
+        <v>3512.246067202839</v>
+      </c>
+      <c r="H5">
+        <v>3848.439763438594</v>
+      </c>
+      <c r="I5">
+        <v>3151.379498488303</v>
+      </c>
+      <c r="J5">
+        <v>2983.171276647547</v>
+      </c>
+      <c r="K5">
+        <v>3316.558273530457</v>
+      </c>
+      <c r="L5">
+        <v>3360.9984396775</v>
+      </c>
+      <c r="M5">
+        <v>4985.080101226611</v>
+      </c>
+      <c r="N5">
+        <v>36472.59837494129</v>
+      </c>
+      <c r="O5">
+        <v>36529.03178508289</v>
+      </c>
+      <c r="P5">
+        <v>36600.85946295352</v>
+      </c>
+      <c r="Q5">
+        <v>121568.8656278938</v>
+      </c>
+      <c r="R5">
+        <v>121679.5100398207</v>
+      </c>
+      <c r="S5">
+        <v>121814.1179444664</v>
+      </c>
+      <c r="T5">
+        <v>121976.8819002754</v>
+      </c>
+      <c r="U5">
+        <v>122173.8626564378</v>
+      </c>
+      <c r="V5">
+        <v>128275.3302678816</v>
+      </c>
+      <c r="W5">
+        <v>128572.3408059892</v>
+      </c>
+      <c r="X5">
+        <v>128945.4914517983</v>
+      </c>
+      <c r="Y5">
+        <v>129422.0975142867</v>
+      </c>
+      <c r="Z5">
+        <v>130039.4459920854</v>
+      </c>
+      <c r="AA5">
+        <v>37025.46534123218</v>
+      </c>
+      <c r="AB5">
+        <v>38086.28775777338</v>
+      </c>
+      <c r="AC5">
+        <v>39478.47006303709</v>
+      </c>
+      <c r="AD5">
+        <v>41293.9504067872</v>
+      </c>
+      <c r="AE5">
+        <v>43635.3381915572</v>
+      </c>
+      <c r="AF5">
+        <v>15201.57854392425</v>
+      </c>
+      <c r="AG5">
+        <v>18492.83718276449</v>
+      </c>
+      <c r="AH5">
+        <v>22518.34452767667</v>
+      </c>
+      <c r="AI5">
+        <v>27881.42022979862</v>
+      </c>
+      <c r="AJ5">
+        <v>34167.61848001759</v>
+      </c>
+      <c r="AK5">
+        <v>53971.2545922267</v>
+      </c>
+      <c r="AL5">
+        <v>61758.89988163056</v>
+      </c>
+      <c r="AM5">
+        <v>70001.59267597589</v>
+      </c>
+      <c r="AN5">
+        <v>78386.95266003189</v>
+      </c>
+      <c r="AO5">
+        <v>86529.92345191918</v>
+      </c>
+      <c r="AP5">
+        <v>112092.7456756148</v>
+      </c>
+      <c r="AQ5">
+        <v>118455.9797238016</v>
+      </c>
+      <c r="AR5">
+        <v>123319.404569329</v>
+      </c>
+      <c r="AS5">
+        <v>126381.2275399726</v>
+      </c>
+      <c r="AT5">
+        <v>127469.6056701935</v>
+      </c>
+      <c r="AU5">
+        <v>131757.8213499363</v>
+      </c>
+      <c r="AV5">
+        <v>128999.1419076022</v>
+      </c>
+      <c r="AW5">
+        <v>124663.1552790881</v>
+      </c>
+      <c r="AX5">
+        <v>119138.4715149887</v>
+      </c>
+      <c r="AY5">
+        <v>112889.1307678239</v>
+      </c>
+      <c r="AZ5">
+        <v>103321.9282326062</v>
+      </c>
+      <c r="BA5">
+        <v>97136.50697269576</v>
+      </c>
+      <c r="BB5">
+        <v>91713.61062281275</v>
+      </c>
+      <c r="BC5">
+        <v>87464.89616882292</v>
+      </c>
+      <c r="BD5">
+        <v>84702.97743074541</v>
+      </c>
+      <c r="BE5">
+        <v>81882.02499684427</v>
+      </c>
+      <c r="BF5">
+        <v>82521.84901463107</v>
+      </c>
+      <c r="BG5">
+        <v>84813.46424996933</v>
+      </c>
+      <c r="BH5">
+        <v>88576.85907992882</v>
+      </c>
+      <c r="BI5">
+        <v>93557.0926326709</v>
+      </c>
+      <c r="BJ5">
+        <v>99156.58939946239</v>
+      </c>
+      <c r="BK5">
+        <v>105639.7595196814</v>
+      </c>
+      <c r="BL5">
+        <v>112374.560653225</v>
+      </c>
+      <c r="BM5">
+        <v>119030.2752860981</v>
+      </c>
+      <c r="BN5">
+        <v>125297.4114145976</v>
+      </c>
+      <c r="BO5">
+        <v>130921.6277240492</v>
+      </c>
+      <c r="BP5">
+        <v>135648.0634988228</v>
+      </c>
+      <c r="BQ5">
+        <v>139336.9959361468</v>
+      </c>
+      <c r="BR5">
+        <v>141899.8952272633</v>
+      </c>
+      <c r="BS5">
+        <v>143319.2937738637</v>
+      </c>
+      <c r="BT5">
+        <v>143138.5449121475</v>
+      </c>
+      <c r="BU5">
+        <v>142495.032678128</v>
+      </c>
+      <c r="BV5">
+        <v>141054.6433266667</v>
+      </c>
+      <c r="BW5">
+        <v>139036.2255795337</v>
+      </c>
+      <c r="BX5">
+        <v>136685.455581804</v>
+      </c>
+      <c r="BY5">
+        <v>133405.0739979465</v>
+      </c>
+      <c r="BZ5">
+        <v>131144.855914449</v>
+      </c>
+      <c r="CA5">
+        <v>129274.5034628215</v>
+      </c>
+      <c r="CB5">
+        <v>127977.9608917223</v>
+      </c>
+      <c r="CC5">
+        <v>127391.0664463716</v>
+      </c>
+      <c r="CD5">
+        <v>126157.3592952571</v>
+      </c>
+      <c r="CE5">
+        <v>127175.4079139903</v>
+      </c>
+      <c r="CF5">
+        <v>128975.9444625408</v>
+      </c>
+      <c r="CG5">
+        <v>131478.0443843043</v>
+      </c>
+      <c r="CH5">
+        <v>134560.6587453614</v>
+      </c>
+      <c r="CI5">
+        <v>135824.7326047503</v>
+      </c>
+      <c r="CJ5">
+        <v>139600.0969071344</v>
+      </c>
+      <c r="CK5">
+        <v>143464.2575493314</v>
+      </c>
+      <c r="CL5">
+        <v>147248.9248298469</v>
+      </c>
+      <c r="CM5">
+        <v>150801.1362037945</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CM5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:91">
+      <c r="B1" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2014</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2031</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2032</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2033</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2034</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>2035</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2036</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>2037</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>2038</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>2039</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>2040</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>2041</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>2042</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>2043</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>2044</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>2045</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>2046</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>2047</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>2049</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>2050</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>2051</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>2052</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>2053</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>2054</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>2055</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>2056</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>2057</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>2058</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>2059</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>2060</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>2061</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>2062</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>2063</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>2064</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>2065</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>2066</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>2067</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>2068</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>2069</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>2070</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>2071</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>2072</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>2073</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>2074</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>2075</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>2076</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>2077</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>2078</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>2079</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>2080</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>2081</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>2082</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>2083</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>2084</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>2085</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>2086</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>2087</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>2088</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>2089</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>2090</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>2091</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>2092</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>2093</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>2094</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>2095</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>2096</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>2097</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>2098</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>2099</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:91">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3.332335427828165E-11</v>
+      </c>
+      <c r="C2">
+        <v>3.284513453445332E-10</v>
+      </c>
+      <c r="D2">
+        <v>2.644910172549428E-09</v>
+      </c>
+      <c r="E2">
+        <v>1.794652138468477E-08</v>
+      </c>
+      <c r="F2">
+        <v>1.051714456543677E-07</v>
+      </c>
+      <c r="G2">
+        <v>5.430354439820833E-07</v>
+      </c>
+      <c r="H2">
+        <v>2.510969149300927E-06</v>
+      </c>
+      <c r="I2">
+        <v>1.053729400572914E-05</v>
+      </c>
+      <c r="J2">
+        <v>4.056616272947798E-05</v>
+      </c>
+      <c r="K2">
+        <v>0.0001444093715299346</v>
+      </c>
+      <c r="L2">
+        <v>0.0004770528801053834</v>
+      </c>
+      <c r="M2">
+        <v>0.001454508344049978</v>
+      </c>
+      <c r="N2">
+        <v>0.003992240019498849</v>
+      </c>
+      <c r="O2">
+        <v>0.009272272506193668</v>
+      </c>
+      <c r="P2">
+        <v>0.01632982737601575</v>
+      </c>
+      <c r="Q2">
+        <v>0.01968459485918081</v>
+      </c>
+      <c r="R2">
+        <v>0.01811061033620049</v>
+      </c>
+      <c r="S2">
+        <v>0.01963441556741752</v>
+      </c>
+      <c r="T2">
+        <v>0.02668207038672726</v>
+      </c>
+      <c r="U2">
+        <v>0.03806919732329686</v>
+      </c>
+      <c r="V2">
+        <v>0.05774872002423438</v>
+      </c>
+      <c r="W2">
+        <v>0.08502305125175803</v>
+      </c>
+      <c r="X2">
+        <v>0.1144047825332876</v>
+      </c>
+      <c r="Y2">
+        <v>0.1495850057249874</v>
+      </c>
+      <c r="Z2">
+        <v>0.1927725379900277</v>
+      </c>
+      <c r="AA2">
+        <v>0.2261028039845804</v>
+      </c>
+      <c r="AB2">
+        <v>0.2657418869831351</v>
+      </c>
+      <c r="AC2">
+        <v>0.3283276318920479</v>
+      </c>
+      <c r="AD2">
+        <v>0.3852073311308639</v>
+      </c>
+      <c r="AE2">
+        <v>0.4575818959797582</v>
+      </c>
+      <c r="AF2">
+        <v>0.5008091196076866</v>
+      </c>
+      <c r="AG2">
+        <v>0.5336604989645954</v>
+      </c>
+      <c r="AH2">
+        <v>0.6529455526927642</v>
+      </c>
+      <c r="AI2">
+        <v>0.853304171963172</v>
+      </c>
+      <c r="AJ2">
+        <v>1.043604998108548</v>
+      </c>
+      <c r="AK2">
+        <v>1.34507151935151</v>
+      </c>
+      <c r="AL2">
+        <v>1.77812488230885</v>
+      </c>
+      <c r="AM2">
+        <v>2.390398127232706</v>
+      </c>
+      <c r="AN2">
+        <v>3.191247354698122</v>
+      </c>
+      <c r="AO2">
+        <v>3.755176824554195</v>
+      </c>
+      <c r="AP2">
+        <v>4.057974205361024</v>
+      </c>
+      <c r="AQ2">
+        <v>4.316911476880497</v>
+      </c>
+      <c r="AR2">
+        <v>4.530100959888268</v>
+      </c>
+      <c r="AS2">
+        <v>4.701389696148754</v>
+      </c>
+      <c r="AT2">
+        <v>4.88616675401444</v>
+      </c>
+      <c r="AU2">
+        <v>5.016250672091809</v>
+      </c>
+      <c r="AV2">
+        <v>4.886623044865633</v>
+      </c>
+      <c r="AW2">
+        <v>4.26498351731369</v>
+      </c>
+      <c r="AX2">
+        <v>3.279456518090682</v>
+      </c>
+      <c r="AY2">
+        <v>2.782609865294675</v>
+      </c>
+      <c r="AZ2">
+        <v>2.773301912577444</v>
+      </c>
+      <c r="BA2">
+        <v>2.717394878603168</v>
+      </c>
+      <c r="BB2">
+        <v>2.48755785060873</v>
+      </c>
+      <c r="BC2">
+        <v>2.137521557258459</v>
+      </c>
+      <c r="BD2">
+        <v>2.001720262167446</v>
+      </c>
+      <c r="BE2">
+        <v>2.127060867623161</v>
+      </c>
+      <c r="BF2">
+        <v>2.375081339003265</v>
+      </c>
+      <c r="BG2">
+        <v>2.76814552292281</v>
+      </c>
+      <c r="BH2">
+        <v>3.317730090646254</v>
+      </c>
+      <c r="BI2">
+        <v>3.917378793953641</v>
+      </c>
+      <c r="BJ2">
+        <v>4.560876050201675</v>
+      </c>
+      <c r="BK2">
+        <v>5.280065222928494</v>
+      </c>
+      <c r="BL2">
+        <v>6.021783861904312</v>
+      </c>
+      <c r="BM2">
+        <v>6.715383563598527</v>
+      </c>
+      <c r="BN2">
+        <v>7.168314386778087</v>
+      </c>
+      <c r="BO2">
+        <v>7.421714696581942</v>
+      </c>
+      <c r="BP2">
+        <v>7.630942655218316</v>
+      </c>
+      <c r="BQ2">
+        <v>7.796166616508939</v>
+      </c>
+      <c r="BR2">
+        <v>7.829537062903602</v>
+      </c>
+      <c r="BS2">
+        <v>7.580301375222272</v>
+      </c>
+      <c r="BT2">
+        <v>7.052173226494027</v>
+      </c>
+      <c r="BU2">
+        <v>6.460779782008546</v>
+      </c>
+      <c r="BV2">
+        <v>6.040421616211121</v>
+      </c>
+      <c r="BW2">
+        <v>5.810812206125776</v>
+      </c>
+      <c r="BX2">
+        <v>5.657937478975056</v>
+      </c>
+      <c r="BY2">
+        <v>5.491877535440575</v>
+      </c>
+      <c r="BZ2">
+        <v>5.336029675975184</v>
+      </c>
+      <c r="CA2">
+        <v>5.294087862736379</v>
+      </c>
+      <c r="CB2">
+        <v>5.41802203172159</v>
+      </c>
+      <c r="CC2">
+        <v>5.728257753276318</v>
+      </c>
+      <c r="CD2">
+        <v>6.195648791578761</v>
+      </c>
+      <c r="CE2">
+        <v>6.761168233422405</v>
+      </c>
+      <c r="CF2">
+        <v>7.376860828488169</v>
+      </c>
+      <c r="CG2">
+        <v>8.022606474036813</v>
+      </c>
+      <c r="CH2">
+        <v>8.707660890605766</v>
+      </c>
+      <c r="CI2">
+        <v>9.37971017978111</v>
+      </c>
+      <c r="CJ2">
+        <v>9.945321057073839</v>
+      </c>
+      <c r="CK2">
+        <v>10.34535216325724</v>
+      </c>
+      <c r="CL2">
+        <v>10.59577337460808</v>
+      </c>
+      <c r="CM2">
+        <v>10.755352953458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:91">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:91">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.02048270970275495</v>
+      </c>
+      <c r="C4">
+        <v>0.03733569194524593</v>
+      </c>
+      <c r="D4">
+        <v>0.06587206949703862</v>
+      </c>
+      <c r="E4">
+        <v>0.113543414112338</v>
+      </c>
+      <c r="F4">
+        <v>0.1920316889201013</v>
+      </c>
+      <c r="G4">
+        <v>0.3190798607914885</v>
+      </c>
+      <c r="H4">
+        <v>0.5220114044151537</v>
+      </c>
+      <c r="I4">
+        <v>0.8467260735644269</v>
+      </c>
+      <c r="J4">
+        <v>1.382849882195645</v>
+      </c>
+      <c r="K4">
+        <v>2.331843918931873</v>
+      </c>
+      <c r="L4">
+        <v>4.169717571622631</v>
+      </c>
+      <c r="M4">
+        <v>7.912873398284654</v>
+      </c>
+      <c r="N4">
+        <v>14.9368549233215</v>
+      </c>
+      <c r="O4">
+        <v>24.34228395724504</v>
+      </c>
+      <c r="P4">
+        <v>30.89100073063278</v>
+      </c>
+      <c r="Q4">
+        <v>35.18464496539384</v>
+      </c>
+      <c r="R4">
+        <v>41.35705220576681</v>
+      </c>
+      <c r="S4">
+        <v>50.2794812269626</v>
+      </c>
+      <c r="T4">
+        <v>61.56091365860243</v>
+      </c>
+      <c r="U4">
+        <v>74.80060335680066</v>
+      </c>
+      <c r="V4">
+        <v>91.35778583695301</v>
+      </c>
+      <c r="W4">
+        <v>110.9752740700899</v>
+      </c>
+      <c r="X4">
+        <v>131.1400369448799</v>
+      </c>
+      <c r="Y4">
+        <v>155.2811532909732</v>
+      </c>
+      <c r="Z4">
+        <v>185.0009797237392</v>
+      </c>
+      <c r="AA4">
+        <v>220.114451919008</v>
+      </c>
+      <c r="AB4">
+        <v>269.6312205716083</v>
+      </c>
+      <c r="AC4">
+        <v>330.8070447698548</v>
+      </c>
+      <c r="AD4">
+        <v>396.6308696409519</v>
+      </c>
+      <c r="AE4">
+        <v>481.1078162939744</v>
+      </c>
+      <c r="AF4">
+        <v>593.8599341059363</v>
+      </c>
+      <c r="AG4">
+        <v>741.7028603267954</v>
+      </c>
+      <c r="AH4">
+        <v>928.1747682322057</v>
+      </c>
+      <c r="AI4">
+        <v>1154.924740544441</v>
+      </c>
+      <c r="AJ4">
+        <v>1442.862614132294</v>
+      </c>
+      <c r="AK4">
+        <v>1799.099986521995</v>
+      </c>
+      <c r="AL4">
+        <v>2193.038069382694</v>
+      </c>
+      <c r="AM4">
+        <v>2646.753473977712</v>
+      </c>
+      <c r="AN4">
+        <v>3151.328989496226</v>
+      </c>
+      <c r="AO4">
+        <v>3560.54977211272</v>
+      </c>
+      <c r="AP4">
+        <v>3859.837367988533</v>
+      </c>
+      <c r="AQ4">
+        <v>4108.031200615003</v>
+      </c>
+      <c r="AR4">
+        <v>4292.86477481663</v>
+      </c>
+      <c r="AS4">
+        <v>4404.561173908293</v>
+      </c>
+      <c r="AT4">
+        <v>4449.286602979761</v>
+      </c>
+      <c r="AU4">
+        <v>4411.690284089596</v>
+      </c>
+      <c r="AV4">
+        <v>4255.500617391718</v>
+      </c>
+      <c r="AW4">
+        <v>3947.79307863264</v>
+      </c>
+      <c r="AX4">
+        <v>3533.79224509708</v>
+      </c>
+      <c r="AY4">
+        <v>3202.908707798397</v>
+      </c>
+      <c r="AZ4">
+        <v>2965.808855221523</v>
+      </c>
+      <c r="BA4">
+        <v>2731.936288977085</v>
+      </c>
+      <c r="BB4">
+        <v>2502.137745092858</v>
+      </c>
+      <c r="BC4">
+        <v>2303.074071351458</v>
+      </c>
+      <c r="BD4">
+        <v>2192.142206310692</v>
+      </c>
+      <c r="BE4">
+        <v>2183.260664639995</v>
+      </c>
+      <c r="BF4">
+        <v>2265.142151036342</v>
+      </c>
+      <c r="BG4">
+        <v>2447.849376673304</v>
+      </c>
+      <c r="BH4">
+        <v>2726.549391640635</v>
+      </c>
+      <c r="BI4">
+        <v>3062.348565733645</v>
+      </c>
+      <c r="BJ4">
+        <v>3436.697966459588</v>
+      </c>
+      <c r="BK4">
+        <v>3833.892685523687</v>
+      </c>
+      <c r="BL4">
+        <v>4216.974822327698</v>
+      </c>
+      <c r="BM4">
+        <v>4562.570467686083</v>
+      </c>
+      <c r="BN4">
+        <v>4842.742536386709</v>
+      </c>
+      <c r="BO4">
+        <v>5063.390634381283</v>
+      </c>
+      <c r="BP4">
+        <v>5243.431467602588</v>
+      </c>
+      <c r="BQ4">
+        <v>5376.534301499947</v>
+      </c>
+      <c r="BR4">
+        <v>5442.845011359876</v>
+      </c>
+      <c r="BS4">
+        <v>5415.706546746591</v>
+      </c>
+      <c r="BT4">
+        <v>5300.886687517725</v>
+      </c>
+      <c r="BU4">
+        <v>5147.476716271584</v>
+      </c>
+      <c r="BV4">
+        <v>5009.658794278686</v>
+      </c>
+      <c r="BW4">
+        <v>4897.32368206356</v>
+      </c>
+      <c r="BX4">
+        <v>4793.147100249053</v>
+      </c>
+      <c r="BY4">
+        <v>4689.330744153887</v>
+      </c>
+      <c r="BZ4">
+        <v>4597.300431135296</v>
+      </c>
+      <c r="CA4">
+        <v>4537.497018214151</v>
+      </c>
+      <c r="CB4">
+        <v>4525.742150132716</v>
+      </c>
+      <c r="CC4">
+        <v>4576.800867120508</v>
+      </c>
+      <c r="CD4">
+        <v>4695.178519680596</v>
+      </c>
+      <c r="CE4">
+        <v>4870.195220017775</v>
+      </c>
+      <c r="CF4">
+        <v>5084.155072595294</v>
+      </c>
+      <c r="CG4">
+        <v>5321.703419086049</v>
+      </c>
+      <c r="CH4">
+        <v>5570.447796950823</v>
+      </c>
+      <c r="CI4">
+        <v>5811.551303863299</v>
+      </c>
+      <c r="CJ4">
+        <v>6027.112249133756</v>
+      </c>
+      <c r="CK4">
+        <v>6209.200557152469</v>
+      </c>
+      <c r="CL4">
+        <v>6360.322454808389</v>
+      </c>
+      <c r="CM4">
+        <v>6485.441779549228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:91">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.001112041473722619</v>
+      </c>
+      <c r="C5">
+        <v>0.002015500986395293</v>
+      </c>
+      <c r="D5">
+        <v>0.003534091688329751</v>
+      </c>
+      <c r="E5">
+        <v>0.006052220365555725</v>
+      </c>
+      <c r="F5">
+        <v>0.01016568172675718</v>
+      </c>
+      <c r="G5">
+        <v>0.01675009143478017</v>
+      </c>
+      <c r="H5">
+        <v>0.02703192688889803</v>
+      </c>
+      <c r="I5">
+        <v>0.04266283303888239</v>
+      </c>
+      <c r="J5">
+        <v>0.06579907531999656</v>
+      </c>
+      <c r="K5">
+        <v>0.09917822309336001</v>
+      </c>
+      <c r="L5">
+        <v>0.1461735917809014</v>
+      </c>
+      <c r="M5">
+        <v>0.2108109592796427</v>
+      </c>
+      <c r="N5">
+        <v>0.2977378984652219</v>
+      </c>
+      <c r="O5">
+        <v>0.4121369219267225</v>
+      </c>
+      <c r="P5">
+        <v>0.5596521274870471</v>
+      </c>
+      <c r="Q5">
+        <v>0.746534479649574</v>
+      </c>
+      <c r="R5">
+        <v>0.9799817244445607</v>
+      </c>
+      <c r="S5">
+        <v>1.268753746165793</v>
+      </c>
+      <c r="T5">
+        <v>1.624629572388712</v>
+      </c>
+      <c r="U5">
+        <v>2.064682451660732</v>
+      </c>
+      <c r="V5">
+        <v>2.614086493355719</v>
+      </c>
+      <c r="W5">
+        <v>3.309393545520447</v>
+      </c>
+      <c r="X5">
+        <v>4.202297572963179</v>
+      </c>
+      <c r="Y5">
+        <v>5.363907612501826</v>
+      </c>
+      <c r="Z5">
+        <v>6.889386573421015</v>
+      </c>
+      <c r="AA5">
+        <v>8.902574717796711</v>
+      </c>
+      <c r="AB5">
+        <v>11.55991529713237</v>
+      </c>
+      <c r="AC5">
+        <v>15.05242133349648</v>
+      </c>
+      <c r="AD5">
+        <v>19.60366294952202</v>
+      </c>
+      <c r="AE5">
+        <v>25.46227799650404</v>
+      </c>
+      <c r="AF5">
+        <v>32.88791850053646</v>
+      </c>
+      <c r="AG5">
+        <v>42.12973442345321</v>
+      </c>
+      <c r="AH5">
+        <v>53.39711130146048</v>
+      </c>
+      <c r="AI5">
+        <v>66.82331067728967</v>
+      </c>
+      <c r="AJ5">
+        <v>82.42434544808418</v>
+      </c>
+      <c r="AK5">
+        <v>100.0573720546127</v>
+      </c>
+      <c r="AL5">
+        <v>119.384929331833</v>
+      </c>
+      <c r="AM5">
+        <v>139.8533075576627</v>
+      </c>
+      <c r="AN5">
+        <v>160.694275032216</v>
+      </c>
+      <c r="AO5">
+        <v>180.9580192119162</v>
+      </c>
+      <c r="AP5">
+        <v>199.5808617511064</v>
+      </c>
+      <c r="AQ5">
+        <v>215.4842620011771</v>
+      </c>
+      <c r="AR5">
+        <v>227.6932810118124</v>
+      </c>
+      <c r="AS5">
+        <v>235.4556728920959</v>
+      </c>
+      <c r="AT5">
+        <v>238.3397212725364</v>
+      </c>
+      <c r="AU5">
+        <v>236.2920682024872</v>
+      </c>
+      <c r="AV5">
+        <v>229.6459496052168</v>
+      </c>
+      <c r="AW5">
+        <v>219.0825562992486</v>
+      </c>
+      <c r="AX5">
+        <v>205.5589690125989</v>
+      </c>
+      <c r="AY5">
+        <v>190.2204740323824</v>
+      </c>
+      <c r="AZ5">
+        <v>174.311226215471</v>
+      </c>
+      <c r="BA5">
+        <v>159.0881166519713</v>
+      </c>
+      <c r="BB5">
+        <v>145.7351159180171</v>
+      </c>
+      <c r="BC5">
+        <v>135.2755783786223</v>
+      </c>
+      <c r="BD5">
+        <v>128.4884450895844</v>
+      </c>
+      <c r="BE5">
+        <v>125.8441118303936</v>
+      </c>
+      <c r="BF5">
+        <v>127.47780295115</v>
+      </c>
+      <c r="BG5">
+        <v>133.2086969231644</v>
+      </c>
+      <c r="BH5">
+        <v>142.5967100330878</v>
+      </c>
+      <c r="BI5">
+        <v>155.0161760773896</v>
+      </c>
+      <c r="BJ5">
+        <v>169.7247316467592</v>
+      </c>
+      <c r="BK5">
+        <v>185.9162396976836</v>
+      </c>
+      <c r="BL5">
+        <v>202.7602371814914</v>
+      </c>
+      <c r="BM5">
+        <v>219.4375059180173</v>
+      </c>
+      <c r="BN5">
+        <v>235.1786040774307</v>
+      </c>
+      <c r="BO5">
+        <v>249.3044129000181</v>
+      </c>
+      <c r="BP5">
+        <v>261.2625755434801</v>
+      </c>
+      <c r="BQ5">
+        <v>270.654504711835</v>
+      </c>
+      <c r="BR5">
+        <v>277.2517240774195</v>
+      </c>
+      <c r="BS5">
+        <v>281.0030131964943</v>
+      </c>
+      <c r="BT5">
+        <v>282.0332476836065</v>
+      </c>
+      <c r="BU5">
+        <v>280.6327483294455</v>
+      </c>
+      <c r="BV5">
+        <v>277.2352503059207</v>
+      </c>
+      <c r="BW5">
+        <v>272.3844287279596</v>
+      </c>
+      <c r="BX5">
+        <v>266.6919997259787</v>
+      </c>
+      <c r="BY5">
+        <v>260.792466785181</v>
+      </c>
+      <c r="BZ5">
+        <v>255.2993524618187</v>
+      </c>
+      <c r="CA5">
+        <v>250.7659666325901</v>
+      </c>
+      <c r="CB5">
+        <v>247.6521973934745</v>
+      </c>
+      <c r="CC5">
+        <v>246.2985485256798</v>
+      </c>
+      <c r="CD5">
+        <v>246.9091583937174</v>
+      </c>
+      <c r="CE5">
+        <v>249.5455248117385</v>
+      </c>
+      <c r="CF5">
+        <v>254.1314928377156</v>
+      </c>
+      <c r="CG5">
+        <v>260.4682772491338</v>
+      </c>
+      <c r="CH5">
+        <v>268.2569412024449</v>
+      </c>
+      <c r="CI5">
+        <v>277.1253848361939</v>
+      </c>
+      <c r="CJ5">
+        <v>286.6573165694363</v>
+      </c>
+      <c r="CK5">
+        <v>296.4213110250275</v>
+      </c>
+      <c r="CL5">
+        <v>305.998457545301</v>
+      </c>
+      <c r="CM5">
+        <v>315.0072509099753</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>